--- a/Benchmarks.xlsx
+++ b/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chc-llvm-pass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16336970-39C0-494A-ADDB-6E30C7C660E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B830AD-DFB7-4E1C-B3A9-28F1717C8D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D2884EE8-8F96-4B9D-B022-6ED68F27B04F}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="661">
   <si>
     <t>Group</t>
   </si>
@@ -1400,15 +1400,9 @@
     <t>malloc</t>
   </si>
   <si>
-    <t>infinite</t>
-  </si>
-  <si>
     <t>error compiling</t>
   </si>
   <si>
-    <t>wrong answer</t>
-  </si>
-  <si>
     <t>OK</t>
   </si>
   <si>
@@ -1430,9 +1424,6 @@
     <t>big int</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>unsigned char</t>
   </si>
   <si>
@@ -2070,6 +2061,12 @@
   </si>
   <si>
     <t>Loops</t>
+  </si>
+  <si>
+    <t>and instr</t>
+  </si>
+  <si>
+    <t>use uint</t>
   </si>
 </sst>
 </file>
@@ -2638,7 +2635,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2664,9 +2661,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2717,35 +2712,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -2946,13 +2915,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
@@ -2961,6 +2923,13 @@
       <fill>
         <patternFill>
           <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2986,6 +2955,11 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5"/>
@@ -2996,6 +2970,27 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3391,10 +3386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{032376FA-FB21-42E9-9C56-42A2E79D324A}">
-  <dimension ref="A1:K426"/>
+  <dimension ref="A1:M426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3408,7 +3403,7 @@
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3422,7 +3417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3430,92 +3425,92 @@
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D3" t="s">
         <v>84</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D4" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F4" s="5">
         <f>COUNTIF($C:$C,"OK")</f>
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G4" s="5">
         <f>COUNTIF($C:$C,"ALMOST")</f>
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5">
         <f>COUNTIF($C:$C,"TOO LONG")</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I4" s="5">
         <f>COUNTIF($C:$C,"WRONG")</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J4" s="5">
         <f>COUNTIF($C:$C,"ERROR")</f>
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="K4" s="5">
         <f>SUM(F4:J4)</f>
-        <v>409</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F5" s="5">
         <f>COUNTIF('ReachSafety-Recursive'!$C:$C,"OK")</f>
@@ -3541,151 +3536,149 @@
         <f>SUM(F5:J5)</f>
         <v>193</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D6" t="s">
         <v>84</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <f>SUM(F4:F5)</f>
-        <v>234</v>
-      </c>
-      <c r="G6" s="16">
+        <v>226</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" ref="G6:K6" si="0">SUM(G4:G5)</f>
-        <v>3</v>
-      </c>
-      <c r="H6" s="16">
+        <v>17</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="I6" s="16">
+        <v>77</v>
+      </c>
+      <c r="I6" s="14">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="J6" s="16">
+        <v>6</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="0"/>
-        <v>269</v>
-      </c>
-      <c r="K6" s="16">
+        <v>278</v>
+      </c>
+      <c r="K6" s="14">
         <f t="shared" si="0"/>
-        <v>602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D7" t="s">
-        <v>450</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D8" t="s">
-        <v>450</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="H13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D16" t="s">
         <v>84</v>
@@ -3696,7 +3689,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D17" t="s">
         <v>84</v>
@@ -3707,7 +3700,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D18" t="s">
         <v>84</v>
@@ -3718,7 +3711,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D19" t="s">
         <v>84</v>
@@ -3729,7 +3722,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D20" t="s">
         <v>84</v>
@@ -3740,7 +3733,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D21" t="s">
         <v>84</v>
@@ -3751,7 +3744,7 @@
         <v>25</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D22" t="s">
         <v>84</v>
@@ -3762,7 +3755,7 @@
         <v>26</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D23" t="s">
         <v>81</v>
@@ -3773,7 +3766,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D24" t="s">
         <v>84</v>
@@ -3784,7 +3777,7 @@
         <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D25" t="s">
         <v>84</v>
@@ -3795,7 +3788,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D26" t="s">
         <v>84</v>
@@ -3806,7 +3799,7 @@
         <v>30</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D27" t="s">
         <v>84</v>
@@ -3817,7 +3810,7 @@
         <v>31</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D28" t="s">
         <v>84</v>
@@ -3828,7 +3821,7 @@
         <v>32</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D29" t="s">
         <v>84</v>
@@ -3839,7 +3832,7 @@
         <v>33</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D30" t="s">
         <v>84</v>
@@ -3850,7 +3843,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D31" t="s">
         <v>84</v>
@@ -3861,7 +3854,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D32" t="s">
         <v>84</v>
@@ -3872,7 +3865,7 @@
         <v>36</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D33" t="s">
         <v>84</v>
@@ -3883,7 +3876,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D34" t="s">
         <v>84</v>
@@ -3894,7 +3887,7 @@
         <v>38</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D35" t="s">
         <v>84</v>
@@ -3905,7 +3898,7 @@
         <v>39</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D36" t="s">
         <v>82</v>
@@ -3916,7 +3909,7 @@
         <v>40</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D37" t="s">
         <v>84</v>
@@ -3927,7 +3920,7 @@
         <v>41</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D38" t="s">
         <v>84</v>
@@ -3938,7 +3931,7 @@
         <v>42</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D39" t="s">
         <v>85</v>
@@ -3949,7 +3942,7 @@
         <v>43</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.25">
@@ -3957,7 +3950,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
@@ -3965,7 +3958,7 @@
         <v>45</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D42" t="s">
         <v>85</v>
@@ -3976,7 +3969,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
@@ -3984,7 +3977,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
@@ -3992,7 +3985,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.25">
@@ -4000,7 +3993,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.25">
@@ -4008,7 +4001,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D47" t="s">
         <v>84</v>
@@ -4019,7 +4012,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D48" t="s">
         <v>84</v>
@@ -4030,7 +4023,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D49" t="s">
         <v>84</v>
@@ -4041,7 +4034,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D50" t="s">
         <v>84</v>
@@ -4052,7 +4045,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D51" t="s">
         <v>85</v>
@@ -4063,7 +4056,7 @@
         <v>55</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D52" t="s">
         <v>85</v>
@@ -4074,7 +4067,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.25">
@@ -4082,10 +4075,10 @@
         <v>57</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D54" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.25">
@@ -4093,7 +4086,7 @@
         <v>58</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D55" t="s">
         <v>85</v>
@@ -4104,7 +4097,7 @@
         <v>59</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.25">
@@ -4112,7 +4105,7 @@
         <v>60</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.25">
@@ -4120,7 +4113,7 @@
         <v>61</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.25">
@@ -4128,7 +4121,7 @@
         <v>62</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.25">
@@ -4136,10 +4129,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D60" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.25">
@@ -4147,7 +4140,10 @@
         <v>64</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.25">
@@ -4155,7 +4151,10 @@
         <v>65</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D62" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.25">
@@ -4163,10 +4162,10 @@
         <v>66</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D63" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.25">
@@ -4174,10 +4173,10 @@
         <v>67</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D64" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4185,7 +4184,7 @@
         <v>68</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4193,7 +4192,7 @@
         <v>69</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4201,7 +4200,7 @@
         <v>70</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D67" t="s">
         <v>83</v>
@@ -4212,7 +4211,7 @@
         <v>71</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D68" t="s">
         <v>83</v>
@@ -4223,7 +4222,7 @@
         <v>72</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D69" t="s">
         <v>84</v>
@@ -4234,7 +4233,7 @@
         <v>73</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D70" t="s">
         <v>83</v>
@@ -4245,7 +4244,7 @@
         <v>74</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D71" t="s">
         <v>84</v>
@@ -4256,7 +4255,7 @@
         <v>75</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D72" t="s">
         <v>84</v>
@@ -4267,7 +4266,7 @@
         <v>76</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D73" t="s">
         <v>84</v>
@@ -4278,7 +4277,7 @@
         <v>77</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4286,13 +4285,16 @@
         <v>78</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>79</v>
       </c>
+      <c r="C76" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="D76" t="s">
         <v>86</v>
       </c>
@@ -4301,6 +4303,9 @@
       <c r="B77" t="s">
         <v>80</v>
       </c>
+      <c r="C77" s="6" t="s">
+        <v>440</v>
+      </c>
       <c r="D77" t="s">
         <v>86</v>
       </c>
@@ -4313,7 +4318,7 @@
         <v>87</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D79" t="s">
         <v>84</v>
@@ -4324,7 +4329,7 @@
         <v>88</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D80" t="s">
         <v>84</v>
@@ -4335,7 +4340,7 @@
         <v>89</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D81" t="s">
         <v>84</v>
@@ -4346,7 +4351,7 @@
         <v>96</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D82" t="s">
         <v>84</v>
@@ -4357,7 +4362,7 @@
         <v>90</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D83" t="s">
         <v>84</v>
@@ -4368,7 +4373,7 @@
         <v>97</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D84" t="s">
         <v>84</v>
@@ -4379,7 +4384,7 @@
         <v>91</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D85" t="s">
         <v>84</v>
@@ -4390,7 +4395,7 @@
         <v>92</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D86" t="s">
         <v>84</v>
@@ -4401,7 +4406,7 @@
         <v>93</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D87" t="s">
         <v>84</v>
@@ -4412,7 +4417,7 @@
         <v>94</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D88" t="s">
         <v>84</v>
@@ -4423,7 +4428,7 @@
         <v>95</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
@@ -4431,7 +4436,7 @@
         <v>98</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
@@ -4439,7 +4444,7 @@
         <v>99</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
@@ -4447,7 +4452,7 @@
         <v>100</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
@@ -4455,7 +4460,7 @@
         <v>101</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
@@ -4463,7 +4468,7 @@
         <v>102</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
@@ -4471,7 +4476,7 @@
         <v>103</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D95" t="s">
         <v>132</v>
@@ -4482,7 +4487,7 @@
         <v>104</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D96" t="s">
         <v>132</v>
@@ -4493,7 +4498,7 @@
         <v>105</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
@@ -4501,7 +4506,7 @@
         <v>106</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
@@ -4509,7 +4514,7 @@
         <v>107</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
@@ -4517,7 +4522,7 @@
         <v>108</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
@@ -4525,7 +4530,7 @@
         <v>109</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
@@ -4533,7 +4538,7 @@
         <v>110</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
@@ -4541,7 +4546,7 @@
         <v>111</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
@@ -4549,7 +4554,7 @@
         <v>112</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
@@ -4557,7 +4562,7 @@
         <v>113</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
@@ -4565,7 +4570,7 @@
         <v>114</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D106" t="s">
         <v>132</v>
@@ -4576,7 +4581,7 @@
         <v>115</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
@@ -4584,7 +4589,7 @@
         <v>116</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D108" t="s">
         <v>132</v>
@@ -4595,7 +4600,10 @@
         <v>117</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
+      </c>
+      <c r="D109" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
@@ -4603,7 +4611,7 @@
         <v>118</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
@@ -4611,7 +4619,7 @@
         <v>119</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
@@ -4619,7 +4627,7 @@
         <v>120</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4627,7 +4635,7 @@
         <v>121</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4635,7 +4643,7 @@
         <v>122</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4643,7 +4651,7 @@
         <v>123</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D115" t="s">
         <v>132</v>
@@ -4654,7 +4662,7 @@
         <v>124</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4662,7 +4670,7 @@
         <v>125</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D117" t="s">
         <v>132</v>
@@ -4673,7 +4681,10 @@
         <v>126</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
+      </c>
+      <c r="D118" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4681,7 +4692,7 @@
         <v>127</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4689,7 +4700,7 @@
         <v>128</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,7 +4708,7 @@
         <v>129</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4705,7 +4716,7 @@
         <v>130</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4716,7 +4727,7 @@
         <v>134</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D124" t="s">
         <v>84</v>
@@ -4727,7 +4738,7 @@
         <v>135</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D125" t="s">
         <v>84</v>
@@ -4738,7 +4749,7 @@
         <v>142</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D126" t="s">
         <v>84</v>
@@ -4749,7 +4760,7 @@
         <v>136</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D127" t="s">
         <v>84</v>
@@ -4760,7 +4771,7 @@
         <v>137</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D128" t="s">
         <v>84</v>
@@ -4771,7 +4782,7 @@
         <v>138</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D129" t="s">
         <v>84</v>
@@ -4782,7 +4793,7 @@
         <v>139</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D130" t="s">
         <v>84</v>
@@ -4793,7 +4804,7 @@
         <v>140</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4801,7 +4812,7 @@
         <v>141</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4812,7 +4823,7 @@
         <v>148</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4820,7 +4831,7 @@
         <v>149</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4828,7 +4839,7 @@
         <v>150</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4836,10 +4847,10 @@
         <v>151</v>
       </c>
       <c r="C137" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D137" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,7 +4858,7 @@
         <v>152</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4855,7 +4866,7 @@
         <v>153</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4863,7 +4874,7 @@
         <v>154</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4871,7 +4882,7 @@
         <v>155</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4879,10 +4890,10 @@
         <v>156</v>
       </c>
       <c r="C142" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D142" t="s">
         <v>451</v>
-      </c>
-      <c r="D142" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4890,7 +4901,7 @@
         <v>157</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4898,10 +4909,10 @@
         <v>158</v>
       </c>
       <c r="C144" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D144" t="s">
         <v>451</v>
-      </c>
-      <c r="D144" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
@@ -4909,10 +4920,10 @@
         <v>159</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D145" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
@@ -4920,7 +4931,7 @@
         <v>160</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
@@ -4928,7 +4939,7 @@
         <v>161</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
@@ -4936,7 +4947,7 @@
         <v>162</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
@@ -4944,7 +4955,7 @@
         <v>163</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
@@ -4952,7 +4963,7 @@
         <v>164</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
@@ -4960,10 +4971,10 @@
         <v>165</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D151" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
@@ -4971,7 +4982,7 @@
         <v>144</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
@@ -4979,7 +4990,7 @@
         <v>166</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
@@ -4987,7 +4998,7 @@
         <v>167</v>
       </c>
       <c r="C154" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
@@ -4995,10 +5006,10 @@
         <v>168</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D155" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
@@ -5006,7 +5017,7 @@
         <v>145</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
@@ -5014,7 +5025,7 @@
         <v>169</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
@@ -5022,10 +5033,10 @@
         <v>170</v>
       </c>
       <c r="C158" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D158" t="s">
         <v>451</v>
-      </c>
-      <c r="D158" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
@@ -5033,7 +5044,7 @@
         <v>146</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
@@ -5041,7 +5052,7 @@
         <v>147</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,7 +5060,7 @@
         <v>171</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,10 +5068,10 @@
         <v>172</v>
       </c>
       <c r="C162" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D162" t="s">
         <v>451</v>
-      </c>
-      <c r="D162" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,7 +5082,7 @@
         <v>174</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D164" t="s">
         <v>436</v>
@@ -5082,7 +5093,7 @@
         <v>175</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D165" t="s">
         <v>436</v>
@@ -5093,7 +5104,7 @@
         <v>176</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5101,7 +5112,7 @@
         <v>177</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,7 +5120,7 @@
         <v>178</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,7 +5128,7 @@
         <v>179</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,7 +5136,7 @@
         <v>180</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,7 +5144,7 @@
         <v>181</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,7 +5152,7 @@
         <v>182</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,7 +5160,7 @@
         <v>183</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5157,7 +5168,7 @@
         <v>184</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,7 +5176,7 @@
         <v>185</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,7 +5184,7 @@
         <v>186</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
@@ -5181,7 +5192,7 @@
         <v>187</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
@@ -5189,7 +5200,7 @@
         <v>188</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
@@ -5197,7 +5208,7 @@
         <v>189</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
@@ -5205,7 +5216,7 @@
         <v>190</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
@@ -5213,7 +5224,7 @@
         <v>191</v>
       </c>
       <c r="C181" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
@@ -5221,7 +5232,7 @@
         <v>192</v>
       </c>
       <c r="C182" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
@@ -5229,7 +5240,7 @@
         <v>193</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
@@ -5237,7 +5248,7 @@
         <v>194</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
@@ -5245,7 +5256,7 @@
         <v>195</v>
       </c>
       <c r="C185" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
@@ -5253,7 +5264,7 @@
         <v>196</v>
       </c>
       <c r="C186" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
@@ -5261,7 +5272,7 @@
         <v>197</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
@@ -5269,7 +5280,7 @@
         <v>198</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
@@ -5277,10 +5288,10 @@
         <v>199</v>
       </c>
       <c r="C189" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D189" t="s">
         <v>451</v>
-      </c>
-      <c r="D189" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
@@ -5288,10 +5299,10 @@
         <v>200</v>
       </c>
       <c r="C190" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D190" t="s">
         <v>451</v>
-      </c>
-      <c r="D190" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
@@ -5299,7 +5310,7 @@
         <v>201</v>
       </c>
       <c r="C191" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
@@ -5307,7 +5318,7 @@
         <v>202</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D192" t="s">
         <v>437</v>
@@ -5318,7 +5329,7 @@
         <v>203</v>
       </c>
       <c r="C193" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5326,7 +5337,7 @@
         <v>204</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,7 +5345,7 @@
         <v>205</v>
       </c>
       <c r="C195" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,7 +5353,7 @@
         <v>206</v>
       </c>
       <c r="C196" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5353,7 +5364,7 @@
         <v>208</v>
       </c>
       <c r="C198" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5361,7 +5372,7 @@
         <v>209</v>
       </c>
       <c r="C199" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5369,10 +5380,10 @@
         <v>210</v>
       </c>
       <c r="C200" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D200" t="s">
         <v>451</v>
-      </c>
-      <c r="D200" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -5380,10 +5391,10 @@
         <v>211</v>
       </c>
       <c r="C201" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D201" t="s">
         <v>451</v>
-      </c>
-      <c r="D201" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
@@ -5391,10 +5402,10 @@
         <v>212</v>
       </c>
       <c r="C202" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D202" t="s">
         <v>451</v>
-      </c>
-      <c r="D202" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,10 +5413,10 @@
         <v>213</v>
       </c>
       <c r="C203" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D203" t="s">
         <v>451</v>
-      </c>
-      <c r="D203" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
@@ -5413,10 +5424,10 @@
         <v>214</v>
       </c>
       <c r="C204" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D204" t="s">
         <v>451</v>
-      </c>
-      <c r="D204" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
@@ -5424,10 +5435,10 @@
         <v>215</v>
       </c>
       <c r="C205" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D205" t="s">
         <v>451</v>
-      </c>
-      <c r="D205" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -5435,10 +5446,10 @@
         <v>216</v>
       </c>
       <c r="C206" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="D206" t="s">
         <v>451</v>
-      </c>
-      <c r="D206" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
@@ -5446,7 +5457,7 @@
         <v>217</v>
       </c>
       <c r="C207" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -5454,10 +5465,7 @@
         <v>218</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="D208" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
@@ -5468,10 +5476,10 @@
         <v>220</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D210" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
@@ -5479,10 +5487,10 @@
         <v>221</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D211" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
@@ -5490,10 +5498,10 @@
         <v>222</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D212" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,10 +5509,10 @@
         <v>223</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D213" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -5512,10 +5520,10 @@
         <v>224</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D214" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,10 +5531,10 @@
         <v>225</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D215" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -5534,10 +5542,10 @@
         <v>226</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D216" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -5545,10 +5553,10 @@
         <v>227</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D217" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -5556,7 +5564,7 @@
         <v>228</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,7 +5572,7 @@
         <v>229</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,7 +5580,7 @@
         <v>230</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
@@ -5580,10 +5588,7 @@
         <v>231</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="D221" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -5591,7 +5596,7 @@
         <v>232</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D222" t="s">
         <v>85</v>
@@ -5602,10 +5607,10 @@
         <v>233</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D223" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
@@ -5613,10 +5618,10 @@
         <v>234</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D224" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
@@ -5624,10 +5629,10 @@
         <v>235</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D225" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
@@ -5635,10 +5640,10 @@
         <v>236</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D226" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
@@ -5646,10 +5651,10 @@
         <v>237</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D227" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
@@ -5660,10 +5665,10 @@
         <v>245</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D229" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
@@ -5671,7 +5676,10 @@
         <v>246</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D230" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -5679,10 +5687,10 @@
         <v>247</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D231" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -5690,10 +5698,10 @@
         <v>248</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D232" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
@@ -5701,7 +5709,7 @@
         <v>249</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,10 +5717,10 @@
         <v>250</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D234" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
@@ -5720,10 +5728,10 @@
         <v>251</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D235" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
@@ -5731,10 +5739,10 @@
         <v>252</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D236" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,7 +5750,7 @@
         <v>253</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
@@ -5750,10 +5758,10 @@
         <v>254</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D238" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
@@ -5761,7 +5769,7 @@
         <v>255</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -5769,7 +5777,7 @@
         <v>256</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
@@ -5777,7 +5785,7 @@
         <v>257</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
@@ -5785,7 +5793,7 @@
         <v>258</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
@@ -5793,7 +5801,7 @@
         <v>259</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
@@ -5801,7 +5809,7 @@
         <v>260</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
@@ -5809,7 +5817,7 @@
         <v>261</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
@@ -5817,7 +5825,7 @@
         <v>262</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
@@ -5825,7 +5833,7 @@
         <v>263</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
@@ -5833,7 +5841,7 @@
         <v>264</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
@@ -5841,7 +5849,7 @@
         <v>265</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
@@ -5849,7 +5857,7 @@
         <v>266</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
@@ -5857,7 +5865,7 @@
         <v>267</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
@@ -5865,7 +5873,7 @@
         <v>268</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
@@ -5873,7 +5881,7 @@
         <v>269</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
@@ -5881,10 +5889,10 @@
         <v>239</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D254" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
@@ -5892,10 +5900,10 @@
         <v>240</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D255" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
@@ -5903,10 +5911,10 @@
         <v>241</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D256" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
@@ -5914,10 +5922,10 @@
         <v>242</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D257" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
@@ -5925,10 +5933,10 @@
         <v>243</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D258" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
@@ -5936,10 +5944,10 @@
         <v>244</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D259" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
@@ -5947,7 +5955,7 @@
         <v>270</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
@@ -5955,7 +5963,7 @@
         <v>271</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
@@ -5963,10 +5971,10 @@
         <v>272</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D262" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
@@ -5974,7 +5982,7 @@
         <v>273</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
@@ -5982,7 +5990,7 @@
         <v>274</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
@@ -5990,10 +5998,10 @@
         <v>275</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D265" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
@@ -6001,10 +6009,10 @@
         <v>276</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D266" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
@@ -6012,7 +6020,10 @@
         <v>277</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D267" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
@@ -6020,10 +6031,10 @@
         <v>278</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D268" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
@@ -6031,10 +6042,10 @@
         <v>279</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D269" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
@@ -6042,10 +6053,10 @@
         <v>280</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D270" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
@@ -6053,10 +6064,10 @@
         <v>281</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D271" t="s">
-        <v>453</v>
+        <v>86</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
@@ -6064,7 +6075,10 @@
         <v>282</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D272" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -6072,7 +6086,10 @@
         <v>283</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D273" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
@@ -6080,7 +6097,10 @@
         <v>284</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D274" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
@@ -6088,7 +6108,10 @@
         <v>285</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D275" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -6096,7 +6119,10 @@
         <v>286</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D276" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -6104,7 +6130,10 @@
         <v>287</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D277" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
@@ -6112,7 +6141,10 @@
         <v>288</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D278" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
@@ -6120,7 +6152,10 @@
         <v>289</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
+      </c>
+      <c r="D279" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -6128,10 +6163,10 @@
         <v>290</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D280" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
@@ -6139,10 +6174,10 @@
         <v>291</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D281" t="s">
-        <v>447</v>
+        <v>86</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
@@ -6150,10 +6185,10 @@
         <v>292</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D282" t="s">
-        <v>448</v>
+        <v>86</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
@@ -6161,10 +6196,10 @@
         <v>293</v>
       </c>
       <c r="C283" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D283" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
@@ -6175,10 +6210,10 @@
         <v>295</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D285" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
@@ -6186,7 +6221,7 @@
         <v>296</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
@@ -6194,7 +6229,7 @@
         <v>297</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -6202,7 +6237,7 @@
         <v>298</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
@@ -6210,7 +6245,7 @@
         <v>299</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
@@ -6218,10 +6253,10 @@
         <v>300</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D290" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
@@ -6229,7 +6264,7 @@
         <v>301</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -6237,7 +6272,7 @@
         <v>302</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
@@ -6245,7 +6280,7 @@
         <v>303</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,7 +6291,7 @@
         <v>304</v>
       </c>
       <c r="C295" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
@@ -6264,7 +6299,7 @@
         <v>305</v>
       </c>
       <c r="C296" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
@@ -6272,7 +6307,7 @@
         <v>306</v>
       </c>
       <c r="C297" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
@@ -6280,7 +6315,7 @@
         <v>307</v>
       </c>
       <c r="C298" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
@@ -6288,7 +6323,7 @@
         <v>308</v>
       </c>
       <c r="C299" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
@@ -6296,7 +6331,7 @@
         <v>309</v>
       </c>
       <c r="C300" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
@@ -6304,7 +6339,7 @@
         <v>310</v>
       </c>
       <c r="C301" s="8" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
@@ -6312,10 +6347,10 @@
         <v>311</v>
       </c>
       <c r="C302" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D302" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -6326,7 +6361,7 @@
         <v>314</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D304" t="s">
         <v>85</v>
@@ -6337,7 +6372,7 @@
         <v>315</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
@@ -6345,7 +6380,7 @@
         <v>316</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
@@ -6353,7 +6388,7 @@
         <v>317</v>
       </c>
       <c r="C307" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D307" t="s">
         <v>85</v>
@@ -6364,7 +6399,7 @@
         <v>318</v>
       </c>
       <c r="C308" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
@@ -6372,7 +6407,7 @@
         <v>319</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
@@ -6380,7 +6415,7 @@
         <v>320</v>
       </c>
       <c r="C310" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D310" t="s">
         <v>85</v>
@@ -6391,7 +6426,7 @@
         <v>321</v>
       </c>
       <c r="C311" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D311" t="s">
         <v>85</v>
@@ -6402,7 +6437,7 @@
         <v>322</v>
       </c>
       <c r="C312" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D312" t="s">
         <v>85</v>
@@ -6413,7 +6448,7 @@
         <v>323</v>
       </c>
       <c r="C313" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
@@ -6421,7 +6456,7 @@
         <v>324</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
@@ -6429,7 +6464,7 @@
         <v>325</v>
       </c>
       <c r="C315" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
@@ -6437,7 +6472,7 @@
         <v>326</v>
       </c>
       <c r="C316" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
@@ -6445,7 +6480,7 @@
         <v>327</v>
       </c>
       <c r="C317" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D317" t="s">
         <v>85</v>
@@ -6456,7 +6491,7 @@
         <v>328</v>
       </c>
       <c r="C318" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D318" t="s">
         <v>85</v>
@@ -6467,7 +6502,7 @@
         <v>329</v>
       </c>
       <c r="C319" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.25">
@@ -6475,7 +6510,7 @@
         <v>330</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D320" t="s">
         <v>85</v>
@@ -6486,7 +6521,7 @@
         <v>331</v>
       </c>
       <c r="C321" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D321" t="s">
         <v>85</v>
@@ -6497,7 +6532,7 @@
         <v>332</v>
       </c>
       <c r="C322" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.25">
@@ -6505,7 +6540,7 @@
         <v>333</v>
       </c>
       <c r="C323" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.25">
@@ -6513,7 +6548,7 @@
         <v>334</v>
       </c>
       <c r="C324" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.25">
@@ -6521,10 +6556,10 @@
         <v>335</v>
       </c>
       <c r="C325" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D325" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.25">
@@ -6532,7 +6567,7 @@
         <v>336</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D326" t="s">
         <v>85</v>
@@ -6543,7 +6578,7 @@
         <v>337</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D327" t="s">
         <v>85</v>
@@ -6554,7 +6589,7 @@
         <v>338</v>
       </c>
       <c r="C328" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.25">
@@ -6562,7 +6597,7 @@
         <v>339</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D329" t="s">
         <v>85</v>
@@ -6573,7 +6608,7 @@
         <v>340</v>
       </c>
       <c r="C330" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.25">
@@ -6581,7 +6616,7 @@
         <v>341</v>
       </c>
       <c r="C331" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.25">
@@ -6589,7 +6624,7 @@
         <v>342</v>
       </c>
       <c r="C332" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.25">
@@ -6597,7 +6632,7 @@
         <v>343</v>
       </c>
       <c r="C333" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.25">
@@ -6605,7 +6640,7 @@
         <v>344</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D334" t="s">
         <v>85</v>
@@ -6616,7 +6651,7 @@
         <v>345</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D335" t="s">
         <v>85</v>
@@ -6627,7 +6662,7 @@
         <v>346</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D336" t="s">
         <v>85</v>
@@ -6638,7 +6673,7 @@
         <v>347</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D337" t="s">
         <v>85</v>
@@ -6649,7 +6684,7 @@
         <v>348</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D338" t="s">
         <v>85</v>
@@ -6660,7 +6695,7 @@
         <v>349</v>
       </c>
       <c r="C339" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.25">
@@ -6668,7 +6703,7 @@
         <v>350</v>
       </c>
       <c r="C340" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.25">
@@ -6676,7 +6711,7 @@
         <v>351</v>
       </c>
       <c r="C341" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.25">
@@ -6684,7 +6719,7 @@
         <v>352</v>
       </c>
       <c r="C342" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="343" spans="2:4" x14ac:dyDescent="0.25">
@@ -6692,7 +6727,7 @@
         <v>353</v>
       </c>
       <c r="C343" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D343" t="s">
         <v>85</v>
@@ -6703,7 +6738,7 @@
         <v>354</v>
       </c>
       <c r="C344" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.25">
@@ -6711,7 +6746,7 @@
         <v>355</v>
       </c>
       <c r="C345" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D345" t="s">
         <v>85</v>
@@ -6722,7 +6757,7 @@
         <v>356</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D346" t="s">
         <v>85</v>
@@ -6733,7 +6768,7 @@
         <v>357</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D347" t="s">
         <v>85</v>
@@ -6744,7 +6779,7 @@
         <v>358</v>
       </c>
       <c r="C348" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D348" t="s">
         <v>85</v>
@@ -6755,7 +6790,7 @@
         <v>359</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D349" t="s">
         <v>85</v>
@@ -6766,7 +6801,7 @@
         <v>360</v>
       </c>
       <c r="C350" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.25">
@@ -6774,10 +6809,10 @@
         <v>361</v>
       </c>
       <c r="C351" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D351" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.25">
@@ -6785,7 +6820,7 @@
         <v>362</v>
       </c>
       <c r="C352" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D352" t="s">
         <v>85</v>
@@ -6796,7 +6831,7 @@
         <v>363</v>
       </c>
       <c r="C353" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D353" t="s">
         <v>85</v>
@@ -6807,7 +6842,7 @@
         <v>364</v>
       </c>
       <c r="C354" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D354" t="s">
         <v>85</v>
@@ -6818,7 +6853,7 @@
         <v>365</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D355" t="s">
         <v>85</v>
@@ -6829,7 +6864,7 @@
         <v>366</v>
       </c>
       <c r="C356" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D356" t="s">
         <v>85</v>
@@ -6840,7 +6875,7 @@
         <v>367</v>
       </c>
       <c r="C357" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D357" t="s">
         <v>85</v>
@@ -6851,7 +6886,7 @@
         <v>368</v>
       </c>
       <c r="C358" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D358" t="s">
         <v>85</v>
@@ -6862,7 +6897,7 @@
         <v>369</v>
       </c>
       <c r="C359" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
@@ -6870,7 +6905,7 @@
         <v>370</v>
       </c>
       <c r="C360" s="9" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
@@ -6878,7 +6913,7 @@
         <v>371</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D361" t="s">
         <v>85</v>
@@ -6892,7 +6927,7 @@
         <v>372</v>
       </c>
       <c r="C363" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D363" t="s">
         <v>83</v>
@@ -6903,7 +6938,7 @@
         <v>374</v>
       </c>
       <c r="C364" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D364" t="s">
         <v>83</v>
@@ -6914,7 +6949,7 @@
         <v>375</v>
       </c>
       <c r="C365" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D365" t="s">
         <v>83</v>
@@ -6925,7 +6960,7 @@
         <v>376</v>
       </c>
       <c r="C366" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D366" t="s">
         <v>83</v>
@@ -6936,7 +6971,7 @@
         <v>377</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D367" t="s">
         <v>83</v>
@@ -6947,7 +6982,7 @@
         <v>378</v>
       </c>
       <c r="C368" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D368" t="s">
         <v>83</v>
@@ -6961,7 +6996,7 @@
         <v>380</v>
       </c>
       <c r="C370" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D370" t="s">
         <v>85</v>
@@ -6972,10 +7007,10 @@
         <v>381</v>
       </c>
       <c r="C371" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D371" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
@@ -6983,7 +7018,7 @@
         <v>382</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -6991,10 +7026,10 @@
         <v>383</v>
       </c>
       <c r="C373" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D373" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -7002,7 +7037,7 @@
         <v>384</v>
       </c>
       <c r="C374" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D374" t="s">
         <v>85</v>
@@ -7013,10 +7048,10 @@
         <v>385</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D375" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -7024,7 +7059,7 @@
         <v>386</v>
       </c>
       <c r="C376" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -7032,7 +7067,7 @@
         <v>387</v>
       </c>
       <c r="C377" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
@@ -7040,7 +7075,7 @@
         <v>388</v>
       </c>
       <c r="C378" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -7048,7 +7083,7 @@
         <v>389</v>
       </c>
       <c r="C379" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -7056,7 +7091,7 @@
         <v>390</v>
       </c>
       <c r="C380" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D380" t="s">
         <v>85</v>
@@ -7067,7 +7102,7 @@
         <v>391</v>
       </c>
       <c r="C381" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D381" t="s">
         <v>85</v>
@@ -7078,10 +7113,10 @@
         <v>392</v>
       </c>
       <c r="C382" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D382" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -7089,7 +7124,7 @@
         <v>393</v>
       </c>
       <c r="C383" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D383" t="s">
         <v>85</v>
@@ -7100,10 +7135,10 @@
         <v>394</v>
       </c>
       <c r="C384" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D384" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.25">
@@ -7111,10 +7146,10 @@
         <v>395</v>
       </c>
       <c r="C385" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D385" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.25">
@@ -7122,7 +7157,7 @@
         <v>396</v>
       </c>
       <c r="C386" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D386" t="s">
         <v>85</v>
@@ -7133,10 +7168,10 @@
         <v>397</v>
       </c>
       <c r="C387" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D387" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.25">
@@ -7144,7 +7179,7 @@
         <v>398</v>
       </c>
       <c r="C388" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D388" t="s">
         <v>85</v>
@@ -7155,10 +7190,10 @@
         <v>399</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D389" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.25">
@@ -7166,7 +7201,7 @@
         <v>400</v>
       </c>
       <c r="C390" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D390" t="s">
         <v>85</v>
@@ -7177,10 +7212,10 @@
         <v>401</v>
       </c>
       <c r="C391" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D391" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.25">
@@ -7188,10 +7223,10 @@
         <v>402</v>
       </c>
       <c r="C392" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D392" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.25">
@@ -7199,7 +7234,7 @@
         <v>403</v>
       </c>
       <c r="C393" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="394" spans="2:4" x14ac:dyDescent="0.25">
@@ -7207,7 +7242,7 @@
         <v>404</v>
       </c>
       <c r="C394" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D394" t="s">
         <v>85</v>
@@ -7218,7 +7253,7 @@
         <v>405</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D395" t="s">
         <v>85</v>
@@ -7229,10 +7264,10 @@
         <v>406</v>
       </c>
       <c r="C396" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D396" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.25">
@@ -7240,10 +7275,10 @@
         <v>407</v>
       </c>
       <c r="C397" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D397" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.25">
@@ -7251,7 +7286,7 @@
         <v>408</v>
       </c>
       <c r="C398" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D398" t="s">
         <v>85</v>
@@ -7262,10 +7297,10 @@
         <v>409</v>
       </c>
       <c r="C399" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D399" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.25">
@@ -7273,10 +7308,10 @@
         <v>410</v>
       </c>
       <c r="C400" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D400" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="401" spans="2:4" x14ac:dyDescent="0.25">
@@ -7284,7 +7319,7 @@
         <v>411</v>
       </c>
       <c r="C401" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D401" t="s">
         <v>85</v>
@@ -7295,7 +7330,7 @@
         <v>412</v>
       </c>
       <c r="C402" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.25">
@@ -7303,10 +7338,10 @@
         <v>413</v>
       </c>
       <c r="C403" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D403" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.25">
@@ -7314,7 +7349,7 @@
         <v>414</v>
       </c>
       <c r="C404" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.25">
@@ -7322,10 +7357,10 @@
         <v>415</v>
       </c>
       <c r="C405" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D405" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.25">
@@ -7333,7 +7368,7 @@
         <v>416</v>
       </c>
       <c r="C406" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.25">
@@ -7341,7 +7376,7 @@
         <v>417</v>
       </c>
       <c r="C407" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.25">
@@ -7349,7 +7384,7 @@
         <v>418</v>
       </c>
       <c r="C408" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.25">
@@ -7357,7 +7392,7 @@
         <v>419</v>
       </c>
       <c r="C409" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D409" t="s">
         <v>85</v>
@@ -7368,10 +7403,10 @@
         <v>420</v>
       </c>
       <c r="C410" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D410" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.25">
@@ -7379,7 +7414,7 @@
         <v>421</v>
       </c>
       <c r="C411" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D411" t="s">
         <v>85</v>
@@ -7390,10 +7425,10 @@
         <v>422</v>
       </c>
       <c r="C412" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D412" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.25">
@@ -7401,7 +7436,7 @@
         <v>423</v>
       </c>
       <c r="C413" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D413" t="s">
         <v>85</v>
@@ -7412,10 +7447,10 @@
         <v>424</v>
       </c>
       <c r="C414" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D414" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.25">
@@ -7423,7 +7458,7 @@
         <v>425</v>
       </c>
       <c r="C415" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D415" t="s">
         <v>85</v>
@@ -7434,10 +7469,10 @@
         <v>426</v>
       </c>
       <c r="C416" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D416" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
@@ -7445,7 +7480,7 @@
         <v>427</v>
       </c>
       <c r="C417" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D417" t="s">
         <v>85</v>
@@ -7456,10 +7491,10 @@
         <v>428</v>
       </c>
       <c r="C418" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D418" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
@@ -7467,7 +7502,7 @@
         <v>429</v>
       </c>
       <c r="C419" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D419" t="s">
         <v>85</v>
@@ -7478,10 +7513,10 @@
         <v>430</v>
       </c>
       <c r="C420" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D420" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -7489,7 +7524,7 @@
         <v>431</v>
       </c>
       <c r="C421" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D421" t="s">
         <v>85</v>
@@ -7500,10 +7535,10 @@
         <v>432</v>
       </c>
       <c r="C422" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D422" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
@@ -7511,7 +7546,7 @@
         <v>433</v>
       </c>
       <c r="C423" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D423" t="s">
         <v>85</v>
@@ -7522,10 +7557,10 @@
         <v>434</v>
       </c>
       <c r="C424" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D424" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
@@ -7533,7 +7568,7 @@
         <v>435</v>
       </c>
       <c r="B426" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -7558,7 +7593,7 @@
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{C147B62E-2FB1-413B-BE1B-873A4DEA0261}">
       <formula1>$F$3:$J$3</formula1>
     </dataValidation>
@@ -7573,7 +7608,7 @@
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7593,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7601,13 +7636,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -7618,36 +7653,36 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F4" s="5">
         <f>COUNTIF($C:$C,"OK")</f>
@@ -7676,34 +7711,34 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C8" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D8" t="s">
         <v>85</v>
@@ -7711,21 +7746,21 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
         <v>85</v>
@@ -7733,34 +7768,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C13" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C14" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D14" t="s">
         <v>85</v>
@@ -7768,411 +7803,411 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C15" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C16" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C17" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C19" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C20" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D21" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C24" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C26" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D26" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C27" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B30" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C31" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C32" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C34" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C35" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C36" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C37" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C38" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C39" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C45" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C49" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C50" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C52" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C53" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C54" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C55" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C56" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C57" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C58" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C59" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C60" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C61" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C62" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C63" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C64" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C65" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D65" t="s">
         <v>85</v>
@@ -8180,18 +8215,18 @@
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C66" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C67" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D67" t="s">
         <v>85</v>
@@ -8199,18 +8234,18 @@
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C69" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D69" t="s">
         <v>85</v>
@@ -8218,274 +8253,274 @@
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C70" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C71" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C72" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C73" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C74" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C75" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C76" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C77" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C78" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C79" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C80" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C81" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C82" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C83" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C84" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C85" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C86" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C87" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C88" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C89" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C90" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C91" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C92" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C93" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C94" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C95" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C96" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C97" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C98" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C99" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C100" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C101" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C102" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C103" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D103" t="s">
         <v>85</v>
@@ -8493,10 +8528,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C104" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D104" t="s">
         <v>85</v>
@@ -8504,29 +8539,29 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C105" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C106" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B108" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D108" t="s">
         <v>83</v>
@@ -8534,10 +8569,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D109" t="s">
         <v>83</v>
@@ -8551,7 +8586,7 @@
         <v>372</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D111" t="s">
         <v>83</v>
@@ -8562,7 +8597,7 @@
         <v>374</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D112" t="s">
         <v>83</v>
@@ -8573,7 +8608,7 @@
         <v>375</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D113" t="s">
         <v>83</v>
@@ -8584,7 +8619,7 @@
         <v>376</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D114" t="s">
         <v>83</v>
@@ -8595,7 +8630,7 @@
         <v>377</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D115" t="s">
         <v>83</v>
@@ -8606,7 +8641,7 @@
         <v>378</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D116" t="s">
         <v>83</v>
@@ -8614,13 +8649,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B118" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C118" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D118" t="s">
         <v>84</v>
@@ -8628,10 +8663,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C119" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D119" t="s">
         <v>84</v>
@@ -8639,10 +8674,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C120" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D120" t="s">
         <v>84</v>
@@ -8650,10 +8685,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C121" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D121" t="s">
         <v>84</v>
@@ -8661,10 +8696,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C122" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D122" t="s">
         <v>84</v>
@@ -8672,10 +8707,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D123" t="s">
         <v>84</v>
@@ -8683,10 +8718,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C124" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D124" t="s">
         <v>84</v>
@@ -8694,10 +8729,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D125" t="s">
         <v>83</v>
@@ -8705,10 +8740,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D126" t="s">
         <v>83</v>
@@ -8716,13 +8751,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B128" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D128" t="s">
         <v>83</v>
@@ -8730,10 +8765,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D129" t="s">
         <v>83</v>
@@ -8741,10 +8776,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D130" t="s">
         <v>83</v>
@@ -8752,10 +8787,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D131" t="s">
         <v>83</v>
@@ -8763,10 +8798,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D132" t="s">
         <v>83</v>
@@ -8774,10 +8809,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D133" t="s">
         <v>83</v>
@@ -8785,10 +8820,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D134" t="s">
         <v>83</v>
@@ -8796,10 +8831,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D135" t="s">
         <v>83</v>
@@ -8807,10 +8842,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D136" t="s">
         <v>83</v>
@@ -8818,13 +8853,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B138" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D138" t="s">
         <v>83</v>
@@ -8832,10 +8867,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D139" t="s">
         <v>83</v>
@@ -8843,10 +8878,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D140" t="s">
         <v>83</v>
@@ -8854,10 +8889,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D141" t="s">
         <v>83</v>
@@ -8865,10 +8900,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D142" t="s">
         <v>83</v>
@@ -8876,10 +8911,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D143" t="s">
         <v>83</v>
@@ -8887,10 +8922,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D144" t="s">
         <v>83</v>
@@ -8898,10 +8933,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D145" t="s">
         <v>83</v>
@@ -8909,13 +8944,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B147" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D147" t="s">
         <v>83</v>
@@ -8923,10 +8958,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D148" t="s">
         <v>83</v>
@@ -8934,10 +8969,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D149" t="s">
         <v>83</v>
@@ -8945,10 +8980,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D150" t="s">
         <v>83</v>
@@ -8956,10 +8991,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D151" t="s">
         <v>83</v>
@@ -8967,10 +9002,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D152" t="s">
         <v>83</v>
@@ -8978,10 +9013,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D153" t="s">
         <v>83</v>
@@ -8989,10 +9024,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D154" t="s">
         <v>83</v>
@@ -9000,10 +9035,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D155" t="s">
         <v>83</v>
@@ -9011,10 +9046,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D156" t="s">
         <v>83</v>
@@ -9022,10 +9057,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D157" t="s">
         <v>83</v>
@@ -9033,10 +9068,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D158" t="s">
         <v>83</v>
@@ -9044,10 +9079,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D159" t="s">
         <v>83</v>
@@ -9055,10 +9090,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D160" t="s">
         <v>83</v>
@@ -9066,10 +9101,10 @@
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D161" t="s">
         <v>83</v>
@@ -9077,10 +9112,10 @@
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D162" t="s">
         <v>83</v>
@@ -9088,10 +9123,10 @@
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D163" t="s">
         <v>83</v>
@@ -9099,10 +9134,10 @@
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D164" t="s">
         <v>83</v>
@@ -9110,10 +9145,10 @@
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D165" t="s">
         <v>83</v>
@@ -9121,10 +9156,10 @@
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D166" t="s">
         <v>83</v>
@@ -9132,10 +9167,10 @@
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D167" t="s">
         <v>83</v>
@@ -9143,10 +9178,10 @@
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D168" t="s">
         <v>83</v>
@@ -9154,10 +9189,10 @@
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D169" t="s">
         <v>83</v>
@@ -9165,10 +9200,10 @@
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D170" t="s">
         <v>83</v>
@@ -9176,10 +9211,10 @@
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D171" t="s">
         <v>83</v>
@@ -9187,10 +9222,10 @@
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D172" t="s">
         <v>83</v>
@@ -9198,10 +9233,10 @@
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D173" t="s">
         <v>83</v>
@@ -9209,10 +9244,10 @@
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D174" t="s">
         <v>83</v>
@@ -9220,10 +9255,10 @@
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D175" t="s">
         <v>83</v>
@@ -9231,10 +9266,10 @@
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D176" t="s">
         <v>83</v>
@@ -9242,10 +9277,10 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D177" t="s">
         <v>83</v>
@@ -9253,10 +9288,10 @@
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D178" t="s">
         <v>83</v>
@@ -9264,10 +9299,10 @@
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D179" t="s">
         <v>83</v>
@@ -9275,10 +9310,10 @@
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D180" t="s">
         <v>83</v>
@@ -9286,10 +9321,10 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D181" t="s">
         <v>83</v>
@@ -9297,10 +9332,10 @@
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D182" t="s">
         <v>83</v>
@@ -9308,10 +9343,10 @@
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D183" t="s">
         <v>83</v>
@@ -9319,10 +9354,10 @@
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D184" t="s">
         <v>83</v>
@@ -9330,10 +9365,10 @@
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D185" t="s">
         <v>83</v>
@@ -9341,10 +9376,10 @@
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D186" t="s">
         <v>83</v>
@@ -9352,10 +9387,10 @@
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D187" t="s">
         <v>83</v>
@@ -9363,10 +9398,10 @@
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D188" t="s">
         <v>83</v>
@@ -9374,10 +9409,10 @@
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D189" t="s">
         <v>83</v>
@@ -9385,10 +9420,10 @@
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D190" t="s">
         <v>83</v>
@@ -9396,10 +9431,10 @@
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D191" t="s">
         <v>83</v>
@@ -9407,10 +9442,10 @@
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D192" t="s">
         <v>83</v>
@@ -9418,10 +9453,10 @@
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D193" t="s">
         <v>83</v>
@@ -9429,10 +9464,10 @@
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D194" t="s">
         <v>83</v>
@@ -9440,10 +9475,10 @@
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D195" t="s">
         <v>83</v>
@@ -9451,10 +9486,10 @@
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D196" t="s">
         <v>83</v>
@@ -9462,10 +9497,10 @@
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D197" t="s">
         <v>83</v>
@@ -9473,10 +9508,10 @@
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D198" t="s">
         <v>83</v>
@@ -9484,10 +9519,10 @@
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D199" t="s">
         <v>83</v>
@@ -9495,10 +9530,10 @@
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D200" t="s">
         <v>83</v>
@@ -9506,10 +9541,10 @@
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D201" t="s">
         <v>83</v>
@@ -9537,146 +9572,154 @@
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C110 C1:C107 C117:C123 D118:D123 C127 C124:D124 C137 C146 C202:C1048576">
-    <cfRule type="containsText" dxfId="41" priority="38" operator="containsText" text="WRONG">
-      <formula>NOT(ISERROR(SEARCH("WRONG",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="39" operator="containsText" text="TOO LONG">
-      <formula>NOT(ISERROR(SEARCH("TOO LONG",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="ALMOST">
+  <conditionalFormatting sqref="C1:C107 C110 C117:C123 D118:D123 C124:D124 C127 C137 C146 C202:C1048576">
+    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="ALMOST">
       <formula>NOT(ISERROR(SEARCH("ALMOST",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="42" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="39" priority="42" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C109">
+    <cfRule type="containsText" dxfId="38" priority="28" operator="containsText" text="WRONG">
+      <formula>NOT(ISERROR(SEARCH("WRONG",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108:C109">
+    <cfRule type="containsText" dxfId="37" priority="26" operator="containsText" text="TOO LONG">
+      <formula>NOT(ISERROR(SEARCH("TOO LONG",C108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="27" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="ALMOST">
+      <formula>NOT(ISERROR(SEARCH("ALMOST",C108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110:C123">
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="WRONG">
+      <formula>NOT(ISERROR(SEARCH("WRONG",C110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C111:C116">
-    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="TOO LONG">
+    <cfRule type="containsText" dxfId="31" priority="32" operator="containsText" text="TOO LONG">
       <formula>NOT(ISERROR(SEARCH("TOO LONG",C111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="30" priority="33" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="WRONG">
-      <formula>NOT(ISERROR(SEARCH("WRONG",C111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="ALMOST">
+    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="ALMOST">
       <formula>NOT(ISERROR(SEARCH("ALMOST",C111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="28" priority="36" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="27" priority="37" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C111)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C108:C109">
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="TOO LONG">
-      <formula>NOT(ISERROR(SEARCH("TOO LONG",C108)))</formula>
+  <conditionalFormatting sqref="C125:C126">
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="TOO LONG">
+      <formula>NOT(ISERROR(SEARCH("TOO LONG",C125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C108)))</formula>
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="28" operator="containsText" text="WRONG">
-      <formula>NOT(ISERROR(SEARCH("WRONG",C108)))</formula>
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="WRONG">
+      <formula>NOT(ISERROR(SEARCH("WRONG",C125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="ALMOST">
-      <formula>NOT(ISERROR(SEARCH("ALMOST",C108)))</formula>
+    <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="ALMOST">
+      <formula>NOT(ISERROR(SEARCH("ALMOST",C125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",C108)))</formula>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C108)))</formula>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C125)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C123 D118:D123 C124:D124 C125:C1048576">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="ERROR">
+  <conditionalFormatting sqref="C125:C1048576 C1:C123 D118:D123 C124:D124">
+    <cfRule type="containsText" dxfId="20" priority="25" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125:C126">
-    <cfRule type="containsText" dxfId="23" priority="19" operator="containsText" text="TOO LONG">
-      <formula>NOT(ISERROR(SEARCH("TOO LONG",C125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="20" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="WRONG">
-      <formula>NOT(ISERROR(SEARCH("WRONG",C125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="ALMOST">
-      <formula>NOT(ISERROR(SEARCH("ALMOST",C125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="23" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",C125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="24" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C128:C136">
-    <cfRule type="containsText" dxfId="17" priority="13" operator="containsText" text="TOO LONG">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="TOO LONG">
       <formula>NOT(ISERROR(SEARCH("TOO LONG",C128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="14" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="18" priority="14" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="WRONG">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="WRONG">
       <formula>NOT(ISERROR(SEARCH("WRONG",C128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="ALMOST">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="ALMOST">
       <formula>NOT(ISERROR(SEARCH("ALMOST",C128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="17" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="18" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C138:C145">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="TOO LONG">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="TOO LONG">
       <formula>NOT(ISERROR(SEARCH("TOO LONG",C138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="WRONG">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="WRONG">
       <formula>NOT(ISERROR(SEARCH("WRONG",C138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="ALMOST">
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="ALMOST">
       <formula>NOT(ISERROR(SEARCH("ALMOST",C138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147:C201">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="TOO LONG">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="TOO LONG">
       <formula>NOT(ISERROR(SEARCH("TOO LONG",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="WRONG">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="WRONG">
       <formula>NOT(ISERROR(SEARCH("WRONG",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="ALMOST">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="ALMOST">
       <formula>NOT(ISERROR(SEARCH("ALMOST",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118:D123 C124:D124 C127 C137 C146 C202:C1048576 C110 C117:C123 C1:C107">
+    <cfRule type="containsText" dxfId="1" priority="39" operator="containsText" text="TOO LONG">
+      <formula>NOT(ISERROR(SEARCH("TOO LONG",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118:D123 C124:D124 C127 C137 C146 C202:C1048576">
+    <cfRule type="containsText" dxfId="0" priority="38" operator="containsText" text="WRONG">
+      <formula>NOT(ISERROR(SEARCH("WRONG",C118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
